--- a/output/fit_clients/fit_round_192.xlsx
+++ b/output/fit_clients/fit_round_192.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2334505245.647723</v>
+        <v>2427644138.459531</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1121651008040569</v>
+        <v>0.07495740577215627</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03570711558772161</v>
+        <v>0.03569652549631714</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1167252663.403439</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2243446756.404644</v>
+        <v>2469503334.538752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1761039449004673</v>
+        <v>0.1361282220139938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05022902895021324</v>
+        <v>0.04588272772102815</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1121723455.93861</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4865130846.774427</v>
+        <v>3888665466.584075</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1206465249822839</v>
+        <v>0.163585211705789</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0271971730790912</v>
+        <v>0.02973573250214828</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>69</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2432565498.823774</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2960799815.204704</v>
+        <v>3110219086.326761</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1095920732464395</v>
+        <v>0.1098741797959559</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04982130904721573</v>
+        <v>0.03972806839576538</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1480399980.030535</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2542507411.138137</v>
+        <v>2074922975.83654</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1093730176708085</v>
+        <v>0.09405601762090955</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05111963613435677</v>
+        <v>0.04821955612423362</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1271253676.425993</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2490867949.374096</v>
+        <v>3023026184.090981</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08815821759852327</v>
+        <v>0.06629590042247492</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04453311404778073</v>
+        <v>0.03229163627438173</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1245433988.55454</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3796446565.44148</v>
+        <v>3172588976.620528</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1984587763279037</v>
+        <v>0.202574232141786</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02714675118614316</v>
+        <v>0.02496335671086751</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>61</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1898223421.629204</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2252765390.718189</v>
+        <v>2191056770.213066</v>
       </c>
       <c r="F9" t="n">
-        <v>0.167466375030489</v>
+        <v>0.1303827415185714</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02802637684308575</v>
+        <v>0.03033635712253791</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1126382686.871064</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5586120568.951786</v>
+        <v>4539781215.213185</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1655477289173296</v>
+        <v>0.179334730790252</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04629743326316244</v>
+        <v>0.04090665148382815</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>81</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2793060429.180723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3537269147.618541</v>
+        <v>3155404011.83777</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1845008361987524</v>
+        <v>0.1309143676322399</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03408792107213585</v>
+        <v>0.0452486859577541</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>80</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1768634554.199544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2425189347.577373</v>
+        <v>3064314017.979583</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1617025288144228</v>
+        <v>0.1518434231581441</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0465640096056082</v>
+        <v>0.03483587251175746</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>68</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1212594639.151434</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3510240906.801272</v>
+        <v>3234576754.920637</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06296701684518929</v>
+        <v>0.09447226730079752</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02925313016407441</v>
+        <v>0.01923441548021539</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>65</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1755120533.185989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3817054038.587396</v>
+        <v>3783489202.227037</v>
       </c>
       <c r="F14" t="n">
-        <v>0.16842328436785</v>
+        <v>0.1872876447709438</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04333399189527746</v>
+        <v>0.03926615961913705</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>61</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1908526994.548172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1250680931.021697</v>
+        <v>1611434417.228852</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1007582800353118</v>
+        <v>0.1087055941357902</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03269079227916877</v>
+        <v>0.03267412218837135</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>625340494.4657315</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2506150412.760795</v>
+        <v>2164949631.135889</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1093425199844921</v>
+        <v>0.1111871563477079</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04058934373435585</v>
+        <v>0.04326404220124613</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1253075236.620728</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5053545707.442019</v>
+        <v>3213528388.991544</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1124367511700558</v>
+        <v>0.1126260284122585</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03979967622451602</v>
+        <v>0.04373491020196465</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>56</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2526772836.179948</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2610661951.595897</v>
+        <v>4010511982.830628</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1313871806669268</v>
+        <v>0.1765528431643826</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02263581754396723</v>
+        <v>0.0236374969964774</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>63</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1305331034.196387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1099033985.956295</v>
+        <v>894881480.1700006</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1205614243944702</v>
+        <v>0.1314867638613938</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02101499190320192</v>
+        <v>0.02635274170811441</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>549517046.2995987</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1825252090.628488</v>
+        <v>2048990599.077715</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1144000854808028</v>
+        <v>0.1252181216154844</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01941267224391506</v>
+        <v>0.01967244070723841</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>32</v>
-      </c>
-      <c r="J20" t="n">
-        <v>912626090.2551324</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2734242952.178746</v>
+        <v>2035889900.811765</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06538721958471108</v>
+        <v>0.0693071797474087</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04172944957309357</v>
+        <v>0.02850120711207849</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1367121441.797859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2612298864.288435</v>
+        <v>3364407586.036502</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09822275817218451</v>
+        <v>0.1361035866783677</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04316305215949959</v>
+        <v>0.03897982536901032</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>53</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1306149516.866528</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1526419804.569497</v>
+        <v>978640146.860481</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1358810909044096</v>
+        <v>0.1148389053579186</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03878409769396044</v>
+        <v>0.03706476668877177</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>763209883.7591312</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4069746202.333068</v>
+        <v>3494857294.319702</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1388176198836712</v>
+        <v>0.09065733500552139</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03324530753630751</v>
+        <v>0.03157135943557905</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>56</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2034873064.452765</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1399518631.016256</v>
+        <v>971380212.4869958</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0981885959418483</v>
+        <v>0.1135931068444925</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02100311050755578</v>
+        <v>0.02661998894693815</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>699759287.545017</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>912198581.391356</v>
+        <v>991354228.1733408</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1197961017516555</v>
+        <v>0.1091223222675921</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02820415792790495</v>
+        <v>0.03874924256301038</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>456099241.3107412</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2846851832.744983</v>
+        <v>4199590321.7649</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1412761668994223</v>
+        <v>0.09747483119574604</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02426710440085054</v>
+        <v>0.02223655614907696</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1423425983.779936</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2851905688.982409</v>
+        <v>2517937903.657545</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1082303085039928</v>
+        <v>0.1479611923571079</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03881036302623908</v>
+        <v>0.03961394336652892</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>62</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1425952842.826249</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5473164746.680943</v>
+        <v>4328096495.915174</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1163840729177806</v>
+        <v>0.1508139839293274</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03580070209940096</v>
+        <v>0.04462255042971448</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>87</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2736582288.095029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1569515933.559721</v>
+        <v>2135974135.357367</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1161333765828534</v>
+        <v>0.09704631099459352</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02804196863171337</v>
+        <v>0.03289326789804951</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>784757955.1678324</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1425261717.226678</v>
+        <v>1034974256.224788</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0812969956155091</v>
+        <v>0.1118205847542281</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04800872181573655</v>
+        <v>0.04053801370366492</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>712630757.0337291</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1536705233.131628</v>
+        <v>1238593431.477651</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1185458122168365</v>
+        <v>0.08063155257073817</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0384692838035979</v>
+        <v>0.03222211359074068</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>768352692.4936287</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2792824653.566024</v>
+        <v>2884433917.325641</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1860756431878304</v>
+        <v>0.1784963864438072</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05678213466899158</v>
+        <v>0.03883731172912374</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1396412340.02371</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1478116335.866944</v>
+        <v>1395685335.584465</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0876881403164535</v>
+        <v>0.1087756870594284</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02273321399389419</v>
+        <v>0.02754268979069078</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>739058127.3970891</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1188478165.52573</v>
+        <v>899132987.9612446</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1161702559102515</v>
+        <v>0.09893670689552317</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04262674736292483</v>
+        <v>0.039745438702898</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>594239059.9892198</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3102030737.052777</v>
+        <v>3011390688.152839</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1361604198494185</v>
+        <v>0.1238023619010253</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0230849394350705</v>
+        <v>0.02632364090762694</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>48</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1551015342.2483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2585623043.26311</v>
+        <v>2684574115.179131</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09023214515678325</v>
+        <v>0.06959603315324608</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04034329114071129</v>
+        <v>0.0397133410991965</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1292811629.481272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1600419844.834794</v>
+        <v>2161262309.936302</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1214197631018365</v>
+        <v>0.1018509329641779</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02746539303532416</v>
+        <v>0.02527104938282305</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>800209957.4669456</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1511904934.490247</v>
+        <v>1592406776.030916</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1253265675442966</v>
+        <v>0.1549111404711932</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02840712750670314</v>
+        <v>0.02519045279784857</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>755952535.8582066</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1370009142.011983</v>
+        <v>1108913909.236177</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1289576522597881</v>
+        <v>0.1141696399464284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04878217018358177</v>
+        <v>0.05742092015655743</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>685004569.731509</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2502239726.588574</v>
+        <v>1867644867.924468</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1280529233518684</v>
+        <v>0.1373406245694272</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04513714003375749</v>
+        <v>0.04254711437135342</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1251119888.300436</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2691481024.172042</v>
+        <v>3341427469.576971</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1015848370684502</v>
+        <v>0.08670202204314333</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0401272826758931</v>
+        <v>0.04203726573357026</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1345740451.258301</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2785264134.039209</v>
+        <v>3053925959.125431</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1637454115161858</v>
+        <v>0.1387098482626967</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01637941972110054</v>
+        <v>0.02344566043149348</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>65</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1392632086.95488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1944665063.557986</v>
+        <v>2057216627.177107</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0758417823005917</v>
+        <v>0.09200985506476804</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02968853193986711</v>
+        <v>0.03276441440833026</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>972332627.0535519</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1947068826.674668</v>
+        <v>2404783484.083718</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1779930165674968</v>
+        <v>0.1427407759408729</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03907704560507476</v>
+        <v>0.03902229590280001</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>973534398.8274281</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4052746626.645478</v>
+        <v>4748872787.144687</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1454499248304263</v>
+        <v>0.1756797289803969</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03773146663589041</v>
+        <v>0.04710044554886966</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>68</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2026373285.888551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3227353278.757351</v>
+        <v>4671445878.342329</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2001446800800504</v>
+        <v>0.1523614145602405</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04062855875960208</v>
+        <v>0.04432885205020644</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>51</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1613676594.705978</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3126922017.742807</v>
+        <v>4364380265.293048</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07123608770640791</v>
+        <v>0.07970970976274197</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03469563919329924</v>
+        <v>0.03436783973755871</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1563461093.950039</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1793203596.59307</v>
+        <v>1807114479.92883</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1786457770744118</v>
+        <v>0.1791506007320708</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04025116746271655</v>
+        <v>0.02781493234877127</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>896601784.7118762</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4126723510.552187</v>
+        <v>4099577764.308554</v>
       </c>
       <c r="F50" t="n">
-        <v>0.147752642254646</v>
+        <v>0.1177139012106624</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03767944845661945</v>
+        <v>0.05166529415225517</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>66</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2063361734.944057</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1260724290.557033</v>
+        <v>1340275799.395448</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1794967519473206</v>
+        <v>0.1350117285465258</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0493719420513508</v>
+        <v>0.03960765331823695</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>630362186.9712681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4294295191.889426</v>
+        <v>5278182689.954198</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1194841714170949</v>
+        <v>0.1203662963573045</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04712722160298079</v>
+        <v>0.04571469310854338</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>79</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2147147635.076785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3298452976.839711</v>
+        <v>3107767788.28692</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1270369171532994</v>
+        <v>0.1800694469991115</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03339479561634758</v>
+        <v>0.03303627718921084</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>55</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1649226500.243021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4629917797.600677</v>
+        <v>3160014222.38548</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1024663155606959</v>
+        <v>0.1489081148764655</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04500271390426818</v>
+        <v>0.04620090421195566</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>62</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2314959012.323323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3362669720.287019</v>
+        <v>4513697742.993507</v>
       </c>
       <c r="F55" t="n">
-        <v>0.193369993995694</v>
+        <v>0.1369989686277763</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02275463562259639</v>
+        <v>0.0242007017334711</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1681334806.883659</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1344212811.943455</v>
+        <v>1768529993.530463</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1036009616157501</v>
+        <v>0.09926731163480404</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05527768700555468</v>
+        <v>0.05322409818171085</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>672106471.3062693</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3470180499.429082</v>
+        <v>3033525464.03474</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1439065851771918</v>
+        <v>0.1447675388340573</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02638863404089151</v>
+        <v>0.02689258985376744</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>62</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1735090293.578359</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1273459772.065183</v>
+        <v>1418529956.851043</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1359955357758064</v>
+        <v>0.1808254042793074</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03949766749263843</v>
+        <v>0.03799453280730136</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>636729937.8242813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5300317999.830762</v>
+        <v>3844518339.660513</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1304801483421626</v>
+        <v>0.1228750993262052</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04727134293940664</v>
+        <v>0.044045408063869</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2650158913.133727</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2377036653.02625</v>
+        <v>3097520840.269941</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1623602456968051</v>
+        <v>0.1671164400382664</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03300275681555319</v>
+        <v>0.02760096738375151</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1188518331.485395</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2998281530.696433</v>
+        <v>3312395811.97252</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1191879471948835</v>
+        <v>0.1108424426511028</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0223905844238197</v>
+        <v>0.02309981039097146</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1499140745.957968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1389372859.19576</v>
+        <v>1435186620.304598</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1232379834940171</v>
+        <v>0.1320999761264531</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03728405315067521</v>
+        <v>0.03339993106102728</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>694686396.0453238</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5310587085.979178</v>
+        <v>4169891303.179575</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1022267251072285</v>
+        <v>0.1060036520468878</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03940060930555879</v>
+        <v>0.04306398922333995</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>54</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2655293546.88239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5311489129.935712</v>
+        <v>5379810289.441812</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1365904040933099</v>
+        <v>0.1584804192163727</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03510999462226758</v>
+        <v>0.03064258078262701</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>60</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2655744693.042714</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5254452730.984106</v>
+        <v>5257625637.340651</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1183261206156273</v>
+        <v>0.121168925153319</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02604363837528158</v>
+        <v>0.02712836510165318</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>69</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2627226309.205127</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4190536579.932415</v>
+        <v>4589928072.417461</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1045713692737018</v>
+        <v>0.1360669756389329</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04796541533840712</v>
+        <v>0.04688854886416582</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>56</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2095268273.733181</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3285787751.102797</v>
+        <v>2555091608.963279</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06570011460024837</v>
+        <v>0.08602238158400276</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04625181978223099</v>
+        <v>0.04296052741822696</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>61</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1642893869.621205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4659331097.697065</v>
+        <v>5826484775.775988</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1021439747425556</v>
+        <v>0.136205926325549</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04584675988721706</v>
+        <v>0.04211231905702856</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>61</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2329665584.573419</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1838540397.987283</v>
+        <v>1565299395.443602</v>
       </c>
       <c r="F69" t="n">
-        <v>0.120178836855168</v>
+        <v>0.139575615121097</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04155617598040243</v>
+        <v>0.05678850557682523</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>919270183.0277046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2823276010.585833</v>
+        <v>3598645685.188735</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09470601705439066</v>
+        <v>0.08092910064167001</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04153224697175022</v>
+        <v>0.04334835465333618</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>55</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1411637970.767272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5472632802.574998</v>
+        <v>4648524569.351863</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1673233948238664</v>
+        <v>0.1342288926624051</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02591457419416049</v>
+        <v>0.02345755860586247</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>71</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2736316542.235168</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2169479010.623645</v>
+        <v>1528410804.990302</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1033323414331664</v>
+        <v>0.09948016323287601</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04165771160460862</v>
+        <v>0.04509792311096869</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1084739424.297672</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2287496834.967221</v>
+        <v>3291357464.320032</v>
       </c>
       <c r="F73" t="n">
-        <v>0.107680871777971</v>
+        <v>0.07899807696079997</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0441393359107157</v>
+        <v>0.04326238072978036</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>73</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1143748478.688665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2497021709.654782</v>
+        <v>3292698729.784747</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1452213171775263</v>
+        <v>0.1607729643707802</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03456812983771883</v>
+        <v>0.02515779954696715</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>66</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1248510963.681343</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2368640952.485038</v>
+        <v>2233733545.307056</v>
       </c>
       <c r="F75" t="n">
-        <v>0.131929628661956</v>
+        <v>0.1589871159737826</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02692429620641627</v>
+        <v>0.03380711318358792</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1184320405.897175</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4679309097.756441</v>
+        <v>4905477404.377199</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09113648542584066</v>
+        <v>0.1226791461683243</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03323755049162728</v>
+        <v>0.03365680709886432</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2339654562.071897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1560209238.349348</v>
+        <v>1867198982.579851</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1847024455923245</v>
+        <v>0.1528109828719252</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01915595275649255</v>
+        <v>0.02158082757352819</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>780104615.6953243</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4343108030.743064</v>
+        <v>4643511278.681859</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08643314748917816</v>
+        <v>0.09678489076788335</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04072229381272709</v>
+        <v>0.05296035173113992</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>68</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2171553956.524389</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1750603247.771724</v>
+        <v>1303482018.024166</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1697572331075749</v>
+        <v>0.1494856559830333</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02571490795416096</v>
+        <v>0.03105390924496944</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>875301701.9187686</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5359976841.892794</v>
+        <v>5443549780.135551</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09700356786809174</v>
+        <v>0.1017121863742317</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03025822412752148</v>
+        <v>0.02784622174543457</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>40</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2679988488.047359</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4641614644.014046</v>
+        <v>5043406428.963636</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09717185341015404</v>
+        <v>0.08439664237359429</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02556834170429222</v>
+        <v>0.02474472646177498</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2320807308.989542</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5596766683.777275</v>
+        <v>5235166011.673151</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2110663997228936</v>
+        <v>0.1910782134481351</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02296650574359695</v>
+        <v>0.0268565577397127</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2798383292.521267</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2020144353.986651</v>
+        <v>1526319537.267926</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1356835278915837</v>
+        <v>0.1156118257084455</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03677883307678301</v>
+        <v>0.03545310904019656</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1010072164.823744</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2072459714.422865</v>
+        <v>2514757322.839319</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1055091034186622</v>
+        <v>0.1161073049020605</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04920313264505904</v>
+        <v>0.04118645503910169</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1036229851.590216</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3152459315.403254</v>
+        <v>2979418841.618227</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1305054058986121</v>
+        <v>0.1577545347990358</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04371563181674834</v>
+        <v>0.04678402364987206</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>72</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1576229734.680631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1915954666.026987</v>
+        <v>1765530727.238515</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1248290055062587</v>
+        <v>0.1574156550339231</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02157977900373815</v>
+        <v>0.02369090633729058</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26</v>
-      </c>
-      <c r="J86" t="n">
-        <v>957977348.9413813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>970982738.7979647</v>
+        <v>1138445746.26391</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1264477189271869</v>
+        <v>0.1596944161205308</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03990455240503129</v>
+        <v>0.03977559802964184</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>485491366.2605327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2799514407.881801</v>
+        <v>2377808312.847287</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1077974444666271</v>
+        <v>0.151604224099592</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03310538623162562</v>
+        <v>0.0372559820517491</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>76</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1399757214.550561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3273429180.928178</v>
+        <v>2861005943.370389</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1471139264643298</v>
+        <v>0.154477408020592</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03260112519454048</v>
+        <v>0.03332992250726488</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>66</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1636714608.500865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1349571029.356088</v>
+        <v>1761066891.404217</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1132031540129991</v>
+        <v>0.1202997100203294</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04347799598903184</v>
+        <v>0.03484219348520001</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>674785465.8334543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1877679911.591764</v>
+        <v>1556167110.283162</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1786571848616514</v>
+        <v>0.1709866552724338</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04005660356496017</v>
+        <v>0.0458197400020133</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>938839944.3288369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2589472133.926202</v>
+        <v>2121805307.797573</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06655380610675643</v>
+        <v>0.09388419499478667</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03926818982305563</v>
+        <v>0.04099724213984794</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>47</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1294736057.686447</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4792930211.879174</v>
+        <v>4808709847.064971</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1297617625234002</v>
+        <v>0.0981025142408746</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04273551624912834</v>
+        <v>0.04068676423589441</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>58</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2396465055.245749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1797737717.103728</v>
+        <v>2518274197.269365</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1274430520537528</v>
+        <v>0.1467999269437303</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03806565156660115</v>
+        <v>0.03459211830048591</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>898868830.5264846</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2565578585.91638</v>
+        <v>2753058923.837583</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09880970178221964</v>
+        <v>0.1093933283877852</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04743788106234099</v>
+        <v>0.04816537776621127</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>46</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1282789324.28899</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1637108524.303305</v>
+        <v>1618901282.04686</v>
       </c>
       <c r="F96" t="n">
-        <v>0.115995926921451</v>
+        <v>0.1212955480076795</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0312182297913969</v>
+        <v>0.03652341177310989</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>818554287.8430972</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4975359587.899605</v>
+        <v>5150874047.867978</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1634225167460443</v>
+        <v>0.1259623974618619</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0279708778746562</v>
+        <v>0.01861775755382588</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>65</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2487679928.743757</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3026943060.65535</v>
+        <v>3144791064.912158</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09811857850929231</v>
+        <v>0.07898000274350257</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03206289366923446</v>
+        <v>0.02728138380448975</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>51</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1513471516.814433</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2856323565.842606</v>
+        <v>3310690217.038489</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0902242649560739</v>
+        <v>0.09475733567145823</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03158240356392433</v>
+        <v>0.02181373942518774</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>60</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1428161758.417869</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3004689613.840075</v>
+        <v>2956504681.700774</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1138940671603831</v>
+        <v>0.1112125131129029</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02421279164273743</v>
+        <v>0.0184269184858509</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>60</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1502344798.121985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3610308287.557387</v>
+        <v>3327808054.411918</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1390459315058251</v>
+        <v>0.1654614925878978</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05457623837543474</v>
+        <v>0.05625463532582484</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>77</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1805154313.506359</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_192.xlsx
+++ b/output/fit_clients/fit_round_192.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2427644138.459531</v>
+        <v>1637340656.353808</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07495740577215627</v>
+        <v>0.1131762062214064</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03569652549631714</v>
+        <v>0.03864677127197474</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2469503334.538752</v>
+        <v>2153727777.725194</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1361282220139938</v>
+        <v>0.1733719694817742</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04588272772102815</v>
+        <v>0.03476294193000651</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3888665466.584075</v>
+        <v>5163725756.347589</v>
       </c>
       <c r="F4" t="n">
-        <v>0.163585211705789</v>
+        <v>0.1392432665624886</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02973573250214828</v>
+        <v>0.03515244025856042</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3110219086.326761</v>
+        <v>3341291163.945235</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1098741797959559</v>
+        <v>0.07000785092673395</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03972806839576538</v>
+        <v>0.03758310529377864</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2074922975.83654</v>
+        <v>2229353109.053544</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09405601762090955</v>
+        <v>0.1266776907210331</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04821955612423362</v>
+        <v>0.05485404096764247</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3023026184.090981</v>
+        <v>2989354396.064877</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06629590042247492</v>
+        <v>0.09940891638298069</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03229163627438173</v>
+        <v>0.04869453831083993</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3172588976.620528</v>
+        <v>2483465367.118299</v>
       </c>
       <c r="F8" t="n">
-        <v>0.202574232141786</v>
+        <v>0.218874315911285</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02496335671086751</v>
+        <v>0.02487161932393349</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2191056770.213066</v>
+        <v>1821107881.278623</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1303827415185714</v>
+        <v>0.1304152040847585</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03033635712253791</v>
+        <v>0.02454570070886287</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4539781215.213185</v>
+        <v>5595509131.738798</v>
       </c>
       <c r="F10" t="n">
-        <v>0.179334730790252</v>
+        <v>0.1937995919395181</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04090665148382815</v>
+        <v>0.04665253073061441</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3155404011.83777</v>
+        <v>2892514961.619892</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1309143676322399</v>
+        <v>0.1822211018339568</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0452486859577541</v>
+        <v>0.03260016240107075</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3064314017.979583</v>
+        <v>2643936242.241025</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1518434231581441</v>
+        <v>0.170682089827772</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03483587251175746</v>
+        <v>0.03979256409311092</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3234576754.920637</v>
+        <v>3642027431.364491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09447226730079752</v>
+        <v>0.07722008300879755</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01923441548021539</v>
+        <v>0.02089581694515055</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3783489202.227037</v>
+        <v>2511895511.989248</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1872876447709438</v>
+        <v>0.1823572761741468</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03926615961913705</v>
+        <v>0.04433355512258189</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1611434417.228852</v>
+        <v>1484359593.771156</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1087055941357902</v>
+        <v>0.07811009166670743</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03267412218837135</v>
+        <v>0.03817413036922634</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2164949631.135889</v>
+        <v>2735022674.398659</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1111871563477079</v>
+        <v>0.107898408435757</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04326404220124613</v>
+        <v>0.05060804734431462</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3213528388.991544</v>
+        <v>3689284857.624976</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1126260284122585</v>
+        <v>0.143730180766394</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04373491020196465</v>
+        <v>0.03493506945879861</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4010511982.830628</v>
+        <v>3815189619.987781</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1765528431643826</v>
+        <v>0.1321682858553864</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0236374969964774</v>
+        <v>0.02271094139693709</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>894881480.1700006</v>
+        <v>1291976869.196633</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1314867638613938</v>
+        <v>0.12611186613562</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02635274170811441</v>
+        <v>0.01896364583628919</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2048990599.077715</v>
+        <v>2464300552.626153</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1252181216154844</v>
+        <v>0.1020521221322599</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01967244070723841</v>
+        <v>0.01934627684144329</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2035889900.811765</v>
+        <v>1689461861.169729</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0693071797474087</v>
+        <v>0.08083257822670224</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02850120711207849</v>
+        <v>0.03165520914924983</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3364407586.036502</v>
+        <v>3002120201.351725</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1361035866783677</v>
+        <v>0.1173099084409339</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03897982536901032</v>
+        <v>0.05230755338080342</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>978640146.860481</v>
+        <v>957926976.6069096</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1148389053579186</v>
+        <v>0.1358628093675059</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03706476668877177</v>
+        <v>0.03385264878829584</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3494857294.319702</v>
+        <v>2782554077.810566</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09065733500552139</v>
+        <v>0.1199417850080537</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03157135943557905</v>
+        <v>0.03745689652314851</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>971380212.4869958</v>
+        <v>1115659688.318388</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1135931068444925</v>
+        <v>0.118967848721331</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02661998894693815</v>
+        <v>0.0267351909341931</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>991354228.1733408</v>
+        <v>1319408273.650989</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1091223222675921</v>
+        <v>0.1240879311998069</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03874924256301038</v>
+        <v>0.02848887450131935</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4199590321.7649</v>
+        <v>4562773019.117757</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09747483119574604</v>
+        <v>0.1012935184662408</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02223655614907696</v>
+        <v>0.02035768310983457</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2517937903.657545</v>
+        <v>2534671731.632429</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1479611923571079</v>
+        <v>0.128169543782597</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03961394336652892</v>
+        <v>0.03166656851014367</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4328096495.915174</v>
+        <v>4800448317.54491</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1508139839293274</v>
+        <v>0.1472455316496956</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04462255042971448</v>
+        <v>0.03061501955134597</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2135974135.357367</v>
+        <v>1993068036.693693</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09704631099459352</v>
+        <v>0.1343462018474598</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03289326789804951</v>
+        <v>0.03503675462212911</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1034974256.224788</v>
+        <v>1502060078.030513</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1118205847542281</v>
+        <v>0.1090827896889416</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04053801370366492</v>
+        <v>0.03771670866419455</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1238593431.477651</v>
+        <v>1639268987.894526</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08063155257073817</v>
+        <v>0.09952340518329772</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03222211359074068</v>
+        <v>0.02506310200378488</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2884433917.325641</v>
+        <v>2646662130.945807</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1784963864438072</v>
+        <v>0.1929572025612488</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03883731172912374</v>
+        <v>0.04047065875000672</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1395685335.584465</v>
+        <v>1432929625.223716</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1087756870594284</v>
+        <v>0.09339117234199933</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02754268979069078</v>
+        <v>0.01837540981472758</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>899132987.9612446</v>
+        <v>1049342909.209604</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09893670689552317</v>
+        <v>0.09036555940075232</v>
       </c>
       <c r="G35" t="n">
-        <v>0.039745438702898</v>
+        <v>0.04309854578119147</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3011390688.152839</v>
+        <v>2667076724.548149</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1238023619010253</v>
+        <v>0.1586755227149568</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02632364090762694</v>
+        <v>0.01876484557497427</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2684574115.179131</v>
+        <v>2765250167.72764</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06959603315324608</v>
+        <v>0.09950331080563186</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0397133410991965</v>
+        <v>0.02568771756547888</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2161262309.936302</v>
+        <v>1721922686.158957</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1018509329641779</v>
+        <v>0.09540564802583874</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02527104938282305</v>
+        <v>0.03509027711388069</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1592406776.030916</v>
+        <v>1600274392.145027</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1549111404711932</v>
+        <v>0.164617501435263</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02519045279784857</v>
+        <v>0.03099020310026421</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1108913909.236177</v>
+        <v>1636750387.068154</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1141696399464284</v>
+        <v>0.1444002620233467</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05742092015655743</v>
+        <v>0.05768388968025275</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1867644867.924468</v>
+        <v>2859750082.379647</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1373406245694272</v>
+        <v>0.1208968804122412</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04254711437135342</v>
+        <v>0.03043685037697703</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3341427469.576971</v>
+        <v>2860578960.050636</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08670202204314333</v>
+        <v>0.1174098284524366</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04203726573357026</v>
+        <v>0.03494856335460783</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3053925959.125431</v>
+        <v>2127820063.103301</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1387098482626967</v>
+        <v>0.1286659544166645</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02344566043149348</v>
+        <v>0.01907787027308467</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2057216627.177107</v>
+        <v>1460066991.899164</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09200985506476804</v>
+        <v>0.08988370636146165</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03276441440833026</v>
+        <v>0.0344875897672338</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2404783484.083718</v>
+        <v>2304343827.833432</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1427407759408729</v>
+        <v>0.1885246154574355</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03902229590280001</v>
+        <v>0.04582481258529278</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4748872787.144687</v>
+        <v>4987808195.564216</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1756797289803969</v>
+        <v>0.1180667433795549</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04710044554886966</v>
+        <v>0.06038767660586007</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4671445878.342329</v>
+        <v>3979648234.676127</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1523614145602405</v>
+        <v>0.132478748773323</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04432885205020644</v>
+        <v>0.0466622605484605</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4364380265.293048</v>
+        <v>3948105168.254378</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07970970976274197</v>
+        <v>0.07516694262214854</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03436783973755871</v>
+        <v>0.03552854353175956</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1807114479.92883</v>
+        <v>1942777590.977325</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1791506007320708</v>
+        <v>0.1841592536243611</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02781493234877127</v>
+        <v>0.02922259547534158</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4099577764.308554</v>
+        <v>2930046869.081713</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1177139012106624</v>
+        <v>0.1639204013733835</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05166529415225517</v>
+        <v>0.03777649154034469</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1340275799.395448</v>
+        <v>1391845111.607033</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1350117285465258</v>
+        <v>0.161319436612268</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03960765331823695</v>
+        <v>0.04260624790471031</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5278182689.954198</v>
+        <v>4635481674.894367</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1203662963573045</v>
+        <v>0.1130067092387303</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04571469310854338</v>
+        <v>0.0620443388387262</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3107767788.28692</v>
+        <v>2536731530.715451</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1800694469991115</v>
+        <v>0.1629345838937714</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03303627718921084</v>
+        <v>0.03416401134713628</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3160014222.38548</v>
+        <v>3945033073.839709</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1489081148764655</v>
+        <v>0.1604418257099344</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04620090421195566</v>
+        <v>0.0405630192342006</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4513697742.993507</v>
+        <v>3453999973.739419</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1369989686277763</v>
+        <v>0.186439921069061</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0242007017334711</v>
+        <v>0.02951379014928027</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1768529993.530463</v>
+        <v>1600144047.761409</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09926731163480404</v>
+        <v>0.1546186133657909</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05322409818171085</v>
+        <v>0.03638927723099059</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3033525464.03474</v>
+        <v>4506964987.255117</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1447675388340573</v>
+        <v>0.1318397411942136</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02689258985376744</v>
+        <v>0.01815686193858511</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1418529956.851043</v>
+        <v>1405874777.628893</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1808254042793074</v>
+        <v>0.1289508604567136</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03799453280730136</v>
+        <v>0.02513668917347666</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3844518339.660513</v>
+        <v>5126919210.669761</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1228750993262052</v>
+        <v>0.0850053414950997</v>
       </c>
       <c r="G59" t="n">
-        <v>0.044045408063869</v>
+        <v>0.03140588436900886</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3097520840.269941</v>
+        <v>2692281669.216374</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1671164400382664</v>
+        <v>0.1776891183433129</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02760096738375151</v>
+        <v>0.02469392235322187</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3312395811.97252</v>
+        <v>3278065909.720449</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1108424426511028</v>
+        <v>0.1769035126934473</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02309981039097146</v>
+        <v>0.03284203771955947</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1435186620.304598</v>
+        <v>2041044045.015532</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1320999761264531</v>
+        <v>0.1385256288812714</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03339993106102728</v>
+        <v>0.04288766969430367</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4169891303.179575</v>
+        <v>4596229208.581487</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1060036520468878</v>
+        <v>0.1009286766452499</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04306398922333995</v>
+        <v>0.03530183990056605</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5379810289.441812</v>
+        <v>4578251478.906128</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1584804192163727</v>
+        <v>0.1924803233475452</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03064258078262701</v>
+        <v>0.03443769497951</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5257625637.340651</v>
+        <v>5625634250.798691</v>
       </c>
       <c r="F65" t="n">
-        <v>0.121168925153319</v>
+        <v>0.1406036561179553</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02712836510165318</v>
+        <v>0.02270784142634659</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4589928072.417461</v>
+        <v>4603536410.205793</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1360669756389329</v>
+        <v>0.1393370265315531</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04688854886416582</v>
+        <v>0.03926173305075269</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2555091608.963279</v>
+        <v>2679074091.753788</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08602238158400276</v>
+        <v>0.08319932229825781</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04296052741822696</v>
+        <v>0.03491787462656145</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5826484775.775988</v>
+        <v>5241480058.094295</v>
       </c>
       <c r="F68" t="n">
-        <v>0.136205926325549</v>
+        <v>0.1114310429959704</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04211231905702856</v>
+        <v>0.04914387563237915</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1565299395.443602</v>
+        <v>1804556049.449455</v>
       </c>
       <c r="F69" t="n">
-        <v>0.139575615121097</v>
+        <v>0.1507663084766613</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05678850557682523</v>
+        <v>0.0538488008831098</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3598645685.188735</v>
+        <v>2842607298.915016</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08092910064167001</v>
+        <v>0.09921406092593192</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04334835465333618</v>
+        <v>0.03645325603356286</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4648524569.351863</v>
+        <v>4900624955.867495</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1342288926624051</v>
+        <v>0.1321938441960786</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02345755860586247</v>
+        <v>0.02901173796911238</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1528410804.990302</v>
+        <v>1716955882.488923</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09948016323287601</v>
+        <v>0.08136540943428655</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04509792311096869</v>
+        <v>0.03275396396348967</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3291357464.320032</v>
+        <v>3161776295.025025</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07899807696079997</v>
+        <v>0.07880714882914105</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04326238072978036</v>
+        <v>0.03963447949321885</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3292698729.784747</v>
+        <v>3947341083.323284</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1607729643707802</v>
+        <v>0.1705119395127455</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02515779954696715</v>
+        <v>0.02570341790805547</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2233733545.307056</v>
+        <v>1801067497.094351</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1589871159737826</v>
+        <v>0.1319240960312061</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03380711318358792</v>
+        <v>0.03501827717540541</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4905477404.377199</v>
+        <v>4915322576.817841</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1226791461683243</v>
+        <v>0.1251184946064786</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03365680709886432</v>
+        <v>0.03157854998365896</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1867198982.579851</v>
+        <v>2177625161.674792</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1528109828719252</v>
+        <v>0.1583698330088515</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02158082757352819</v>
+        <v>0.02389937560856623</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4643511278.681859</v>
+        <v>3294549396.756557</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09678489076788335</v>
+        <v>0.1074217372399084</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05296035173113992</v>
+        <v>0.04236766756429187</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1303482018.024166</v>
+        <v>1771760937.178004</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1494856559830333</v>
+        <v>0.1592379829915845</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03105390924496944</v>
+        <v>0.03410907416931739</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5443549780.135551</v>
+        <v>5453612404.482591</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1017121863742317</v>
+        <v>0.0769834724635951</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02784622174543457</v>
+        <v>0.03330713999987615</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5043406428.963636</v>
+        <v>4255723365.830412</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08439664237359429</v>
+        <v>0.1062176593634954</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02474472646177498</v>
+        <v>0.02339745312481123</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5235166011.673151</v>
+        <v>5578557390.945283</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1910782134481351</v>
+        <v>0.1708975034750347</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0268565577397127</v>
+        <v>0.02324635202441014</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1526319537.267926</v>
+        <v>1689943674.109633</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1156118257084455</v>
+        <v>0.1207022427234801</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03545310904019656</v>
+        <v>0.03008829467081266</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2514757322.839319</v>
+        <v>1915673296.075424</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1161073049020605</v>
+        <v>0.0953799637431262</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04118645503910169</v>
+        <v>0.032353778222759</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2979418841.618227</v>
+        <v>2330800549.218402</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1577545347990358</v>
+        <v>0.1761604403655392</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04678402364987206</v>
+        <v>0.04395657686263862</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1765530727.238515</v>
+        <v>2186467765.418429</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1574156550339231</v>
+        <v>0.1693633494469196</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02369090633729058</v>
+        <v>0.02200996999672445</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1138445746.26391</v>
+        <v>1262585154.980079</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1596944161205308</v>
+        <v>0.130644842260265</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03977559802964184</v>
+        <v>0.04056605239203356</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2377808312.847287</v>
+        <v>2471377692.360111</v>
       </c>
       <c r="F88" t="n">
-        <v>0.151604224099592</v>
+        <v>0.1294937714909174</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0372559820517491</v>
+        <v>0.03548944238526853</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2861005943.370389</v>
+        <v>2890623551.893881</v>
       </c>
       <c r="F89" t="n">
-        <v>0.154477408020592</v>
+        <v>0.1477527409664134</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03332992250726488</v>
+        <v>0.03464017388964465</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1761066891.404217</v>
+        <v>2049883601.535465</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1202997100203294</v>
+        <v>0.1335240536108407</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03484219348520001</v>
+        <v>0.03437783980043737</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1556167110.283162</v>
+        <v>1948982106.488557</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1709866552724338</v>
+        <v>0.1186413207091871</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0458197400020133</v>
+        <v>0.05071900580377469</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2121805307.797573</v>
+        <v>2870682316.657794</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09388419499478667</v>
+        <v>0.06992600427193581</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04099724213984794</v>
+        <v>0.03995133973890298</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4808709847.064971</v>
+        <v>4087562146.810382</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0981025142408746</v>
+        <v>0.09066388225286784</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04068676423589441</v>
+        <v>0.04086579338767668</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2518274197.269365</v>
+        <v>1904763955.331939</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1467999269437303</v>
+        <v>0.1533596114446927</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03459211830048591</v>
+        <v>0.03451930369646471</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2753058923.837583</v>
+        <v>2123357396.484034</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1093933283877852</v>
+        <v>0.1095582741071986</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04816537776621127</v>
+        <v>0.04591954609677535</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1618901282.04686</v>
+        <v>2244707110.168608</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1212955480076795</v>
+        <v>0.1000867225960515</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03652341177310989</v>
+        <v>0.03938240341622161</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5150874047.867978</v>
+        <v>3408947659.748106</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1259623974618619</v>
+        <v>0.1767979501530104</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01861775755382588</v>
+        <v>0.021768993995329</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3144791064.912158</v>
+        <v>2433643028.947921</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07898000274350257</v>
+        <v>0.1225630383166538</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02728138380448975</v>
+        <v>0.03091815081204761</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3310690217.038489</v>
+        <v>2789444863.388471</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09475733567145823</v>
+        <v>0.1270462871908039</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02181373942518774</v>
+        <v>0.02935614807334659</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2956504681.700774</v>
+        <v>3209366807.870574</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1112125131129029</v>
+        <v>0.1523911804717492</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0184269184858509</v>
+        <v>0.02620307418022553</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3327808054.411918</v>
+        <v>3526987330.073307</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1654614925878978</v>
+        <v>0.1718922417255982</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05625463532582484</v>
+        <v>0.04191450590181185</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_192.xlsx
+++ b/output/fit_clients/fit_round_192.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1637340656.353808</v>
+        <v>2309543019.388482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1131762062214064</v>
+        <v>0.09460246299028502</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03864677127197474</v>
+        <v>0.03240012949794665</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2153727777.725194</v>
+        <v>2091864567.233554</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1733719694817742</v>
+        <v>0.1271106083546308</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03476294193000651</v>
+        <v>0.04911779714077484</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5163725756.347589</v>
+        <v>3399917895.419072</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1392432665624886</v>
+        <v>0.1296963442925506</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03515244025856042</v>
+        <v>0.02942939721390833</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>106</v>
+      </c>
+      <c r="J4" t="n">
+        <v>190</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3341291163.945235</v>
+        <v>3458298276.045467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000785092673395</v>
+        <v>0.08439400627782311</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03758310529377864</v>
+        <v>0.03363497786289895</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>79</v>
+      </c>
+      <c r="J5" t="n">
+        <v>192</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2229353109.053544</v>
+        <v>2625751178.497846</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1266776907210331</v>
+        <v>0.1047103466453848</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05485404096764247</v>
+        <v>0.05466565732048622</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2989354396.064877</v>
+        <v>2732112805.780085</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09940891638298069</v>
+        <v>0.08008942515192539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04869453831083993</v>
+        <v>0.04024760073151323</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2483465367.118299</v>
+        <v>2504045358.159545</v>
       </c>
       <c r="F8" t="n">
-        <v>0.218874315911285</v>
+        <v>0.1836908593754783</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02487161932393349</v>
+        <v>0.02708496106970422</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>54</v>
+      </c>
+      <c r="J8" t="n">
+        <v>190</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1821107881.278623</v>
+        <v>1410135499.078704</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1304152040847585</v>
+        <v>0.1437693370850142</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02454570070886287</v>
+        <v>0.03455823088331713</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5595509131.738798</v>
+        <v>5427010789.32839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1937995919395181</v>
+        <v>0.213449171058392</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04665253073061441</v>
+        <v>0.03429979794902274</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>175</v>
+      </c>
+      <c r="J10" t="n">
+        <v>192</v>
+      </c>
+      <c r="K10" t="n">
+        <v>133.0410791695607</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2892514961.619892</v>
+        <v>3665796049.724988</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1822211018339568</v>
+        <v>0.156688029535454</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03260016240107075</v>
+        <v>0.0347783101867836</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>78</v>
+      </c>
+      <c r="J11" t="n">
+        <v>192</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2643936242.241025</v>
+        <v>2730976081.564348</v>
       </c>
       <c r="F12" t="n">
-        <v>0.170682089827772</v>
+        <v>0.1622820018854092</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03979256409311092</v>
+        <v>0.03350796922415521</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3642027431.364491</v>
+        <v>4042890249.816255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07722008300879755</v>
+        <v>0.08339929012422265</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02089581694515055</v>
+        <v>0.02737611647771174</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>96</v>
+      </c>
+      <c r="J13" t="n">
+        <v>192</v>
+      </c>
+      <c r="K13" t="n">
+        <v>121.9474550537388</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2511895511.989248</v>
+        <v>2636920986.644823</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1823572761741468</v>
+        <v>0.1586524360054609</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04433355512258189</v>
+        <v>0.0384355506853017</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>189</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1484359593.771156</v>
+        <v>1637016667.081295</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07811009166670743</v>
+        <v>0.0812807867214877</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03817413036922634</v>
+        <v>0.04896189267640233</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2735022674.398659</v>
+        <v>2368691809.580456</v>
       </c>
       <c r="F16" t="n">
-        <v>0.107898408435757</v>
+        <v>0.1083150345168975</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05060804734431462</v>
+        <v>0.03404557990340777</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3689284857.624976</v>
+        <v>3968075458.998771</v>
       </c>
       <c r="F17" t="n">
-        <v>0.143730180766394</v>
+        <v>0.1248734463489012</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03493506945879861</v>
+        <v>0.05085606212625146</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>92</v>
+      </c>
+      <c r="J17" t="n">
+        <v>191</v>
+      </c>
+      <c r="K17" t="n">
+        <v>113.2323189878651</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3815189619.987781</v>
+        <v>3251679679.653108</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1321682858553864</v>
+        <v>0.1726866277249574</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02271094139693709</v>
+        <v>0.02909920548609853</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>48</v>
+      </c>
+      <c r="J18" t="n">
+        <v>187</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1291976869.196633</v>
+        <v>889079218.6060005</v>
       </c>
       <c r="F19" t="n">
-        <v>0.12611186613562</v>
+        <v>0.1258200364321488</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01896364583628919</v>
+        <v>0.02030125905299013</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2464300552.626153</v>
+        <v>2229044146.958127</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1020521221322599</v>
+        <v>0.1314864511329373</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01934627684144329</v>
+        <v>0.02212214832839399</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1689461861.169729</v>
+        <v>2325926979.898596</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08083257822670224</v>
+        <v>0.06469961398440449</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03165520914924983</v>
+        <v>0.04181875638914923</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3002120201.351725</v>
+        <v>3964928058.003439</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1173099084409339</v>
+        <v>0.109221683213132</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05230755338080342</v>
+        <v>0.04862392462809945</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>48</v>
+      </c>
+      <c r="J22" t="n">
+        <v>192</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>957926976.6069096</v>
+        <v>1180178672.936863</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1358628093675059</v>
+        <v>0.1247511499750151</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03385264878829584</v>
+        <v>0.03464951121420822</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2782554077.810566</v>
+        <v>3214573872.130504</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1199417850080537</v>
+        <v>0.1118126433131879</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03745689652314851</v>
+        <v>0.02266995320199216</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60</v>
+      </c>
+      <c r="J24" t="n">
+        <v>189</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1115659688.318388</v>
+        <v>922862261.8882264</v>
       </c>
       <c r="F25" t="n">
-        <v>0.118967848721331</v>
+        <v>0.1031091810821</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0267351909341931</v>
+        <v>0.0187205854970419</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1319408273.650989</v>
+        <v>1073611991.599261</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1240879311998069</v>
+        <v>0.09664481351522983</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02848887450131935</v>
+        <v>0.03876943311357565</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4562773019.117757</v>
+        <v>4363375338.233577</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1012935184662408</v>
+        <v>0.1364817571062264</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02035768310983457</v>
+        <v>0.0255828815148949</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>76</v>
+      </c>
+      <c r="J27" t="n">
+        <v>192</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1411,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2534671731.632429</v>
+        <v>3304488239.859464</v>
       </c>
       <c r="F28" t="n">
-        <v>0.128169543782597</v>
+        <v>0.1146215439841788</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03166656851014367</v>
+        <v>0.04254462540150084</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>39</v>
+      </c>
+      <c r="J28" t="n">
+        <v>191</v>
+      </c>
+      <c r="K28" t="n">
+        <v>93.3965747302762</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4800448317.54491</v>
+        <v>4657365845.758387</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1472455316496956</v>
+        <v>0.1033390068913963</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03061501955134597</v>
+        <v>0.03616777396003843</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>181</v>
+      </c>
+      <c r="J29" t="n">
+        <v>192</v>
+      </c>
+      <c r="K29" t="n">
+        <v>139.9496910575573</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1993068036.693693</v>
+        <v>1515384294.028676</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1343462018474598</v>
+        <v>0.1345224267506259</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03503675462212911</v>
+        <v>0.03469826221117802</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1502060078.030513</v>
+        <v>1265674731.188148</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1090827896889416</v>
+        <v>0.07298271756134818</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03771670866419455</v>
+        <v>0.0494091303118943</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1639268987.894526</v>
+        <v>1242812829.280083</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09952340518329772</v>
+        <v>0.09953849644879041</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02506310200378488</v>
+        <v>0.03170447527171336</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2646662130.945807</v>
+        <v>2621616465.119028</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1929572025612488</v>
+        <v>0.1521935659456582</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04047065875000672</v>
+        <v>0.0539803904413969</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1432929625.223716</v>
+        <v>1084561372.654025</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09339117234199933</v>
+        <v>0.08359416297578327</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01837540981472758</v>
+        <v>0.02777004000916936</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1049342909.209604</v>
+        <v>1350642674.465352</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09036555940075232</v>
+        <v>0.1119378267091017</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04309854578119147</v>
+        <v>0.04186364267105385</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2667076724.548149</v>
+        <v>2858491320.170186</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1586755227149568</v>
+        <v>0.1563330511756749</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01876484557497427</v>
+        <v>0.02004147248554873</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2765250167.72764</v>
+        <v>2164344211.902647</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09950331080563186</v>
+        <v>0.06897508831812639</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02568771756547888</v>
+        <v>0.02685963135120964</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1721922686.158957</v>
+        <v>1761740968.375191</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09540564802583874</v>
+        <v>0.1204018868480794</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03509027711388069</v>
+        <v>0.03706096222371393</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1600274392.145027</v>
+        <v>1635711908.198522</v>
       </c>
       <c r="F39" t="n">
-        <v>0.164617501435263</v>
+        <v>0.1260083002840346</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03099020310026421</v>
+        <v>0.03186780963204845</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1636750387.068154</v>
+        <v>1730317778.61463</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1444002620233467</v>
+        <v>0.1252183276126864</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05768388968025275</v>
+        <v>0.05137973834692566</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2859750082.379647</v>
+        <v>2064110992.638477</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1208968804122412</v>
+        <v>0.1473885400111425</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03043685037697703</v>
+        <v>0.02990423906005324</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2860578960.050636</v>
+        <v>3274165787.701888</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1174098284524366</v>
+        <v>0.07991998992611823</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03494856335460783</v>
+        <v>0.04641756731140598</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>74</v>
+      </c>
+      <c r="J42" t="n">
+        <v>191</v>
+      </c>
+      <c r="K42" t="n">
+        <v>94.36253305692919</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2127820063.103301</v>
+        <v>2333488404.176245</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1286659544166645</v>
+        <v>0.1243898106643575</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01907787027308467</v>
+        <v>0.02379933230238297</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1460066991.899164</v>
+        <v>1433336020.382429</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08988370636146165</v>
+        <v>0.06791283414848677</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0344875897672338</v>
+        <v>0.02327413273588815</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2304343827.833432</v>
+        <v>1594878155.864409</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1885246154574355</v>
+        <v>0.1570046488747999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04582481258529278</v>
+        <v>0.03388418692467396</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4987808195.564216</v>
+        <v>4065886062.657291</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1180667433795549</v>
+        <v>0.1163628961305073</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06038767660586007</v>
+        <v>0.04733717872510913</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>109</v>
+      </c>
+      <c r="J46" t="n">
+        <v>192</v>
+      </c>
+      <c r="K46" t="n">
+        <v>123.645602110368</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3979648234.676127</v>
+        <v>4949588281.943649</v>
       </c>
       <c r="F47" t="n">
-        <v>0.132478748773323</v>
+        <v>0.1879351573906114</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0466622605484605</v>
+        <v>0.03677502384603058</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>85</v>
+      </c>
+      <c r="J47" t="n">
+        <v>192</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3948105168.254378</v>
+        <v>4401578380.058103</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07516694262214854</v>
+        <v>0.09506534914483164</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03552854353175956</v>
+        <v>0.0257005426873526</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>91</v>
+      </c>
+      <c r="J48" t="n">
+        <v>192</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1942777590.977325</v>
+        <v>1313285075.546869</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1841592536243611</v>
+        <v>0.1795712653595084</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02922259547534158</v>
+        <v>0.04203026361376952</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2930046869.081713</v>
+        <v>3206089213.792059</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1639204013733835</v>
+        <v>0.1128185937353141</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03777649154034469</v>
+        <v>0.05071444299091406</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>61</v>
+      </c>
+      <c r="J50" t="n">
+        <v>191</v>
+      </c>
+      <c r="K50" t="n">
+        <v>89.64692247020163</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1391845111.607033</v>
+        <v>1046538980.473676</v>
       </c>
       <c r="F51" t="n">
-        <v>0.161319436612268</v>
+        <v>0.1275275062583817</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04260624790471031</v>
+        <v>0.04331928321589766</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4635481674.894367</v>
+        <v>3805292155.599658</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1130067092387303</v>
+        <v>0.08453144285693907</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0620443388387262</v>
+        <v>0.05894418601537834</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>134</v>
+      </c>
+      <c r="J52" t="n">
+        <v>191</v>
+      </c>
+      <c r="K52" t="n">
+        <v>121.7050198387121</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2536731530.715451</v>
+        <v>2469247497.126069</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1629345838937714</v>
+        <v>0.1693958995377771</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03416401134713628</v>
+        <v>0.02293775329716738</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3945033073.839709</v>
+        <v>3623489189.571911</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1604418257099344</v>
+        <v>0.1469052269809363</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0405630192342006</v>
+        <v>0.04589340326165207</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>97</v>
+      </c>
+      <c r="J54" t="n">
+        <v>191</v>
+      </c>
+      <c r="K54" t="n">
+        <v>116.28745030582</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3453999973.739419</v>
+        <v>4989737888.070581</v>
       </c>
       <c r="F55" t="n">
-        <v>0.186439921069061</v>
+        <v>0.1899259077493584</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02951379014928027</v>
+        <v>0.02768548084927401</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>86</v>
+      </c>
+      <c r="J55" t="n">
+        <v>191</v>
+      </c>
+      <c r="K55" t="n">
+        <v>118.8448286532339</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1600144047.761409</v>
+        <v>1749157471.479744</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1546186133657909</v>
+        <v>0.1397154605216432</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03638927723099059</v>
+        <v>0.05709988304891705</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4506964987.255117</v>
+        <v>4536934130.72027</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1318397411942136</v>
+        <v>0.1442303261164513</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01815686193858511</v>
+        <v>0.02690281700577773</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>76</v>
+      </c>
+      <c r="J57" t="n">
+        <v>192</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1405874777.628893</v>
+        <v>1155390943.185215</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1289508604567136</v>
+        <v>0.1703274129611261</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02513668917347666</v>
+        <v>0.02398951393823871</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5126919210.669761</v>
+        <v>3878762039.588501</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0850053414950997</v>
+        <v>0.1165265342306949</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03140588436900886</v>
+        <v>0.04990581646617208</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>92</v>
+      </c>
+      <c r="J59" t="n">
+        <v>192</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2692281669.216374</v>
+        <v>2484269294.335606</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1776891183433129</v>
+        <v>0.134786938975796</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02469392235322187</v>
+        <v>0.03110669897143945</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>189</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3278065909.720449</v>
+        <v>2156033949.695109</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1769035126934473</v>
+        <v>0.1144316013477256</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03284203771955947</v>
+        <v>0.03022968395687629</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2041044045.015532</v>
+        <v>1698197224.175757</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1385256288812714</v>
+        <v>0.1581435818487525</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04288766969430367</v>
+        <v>0.0356925927809428</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4596229208.581487</v>
+        <v>5139990724.080827</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1009286766452499</v>
+        <v>0.1037635220937886</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03530183990056605</v>
+        <v>0.03155958351853462</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>94</v>
+      </c>
+      <c r="J63" t="n">
+        <v>192</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4578251478.906128</v>
+        <v>5131285873.836751</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1924803233475452</v>
+        <v>0.1896565941254403</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03443769497951</v>
+        <v>0.03141468043126674</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>94</v>
+      </c>
+      <c r="J64" t="n">
+        <v>192</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5625634250.798691</v>
+        <v>4716221572.702497</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1406036561179553</v>
+        <v>0.1401628709244835</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02270784142634659</v>
+        <v>0.03148530834853189</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>156</v>
+      </c>
+      <c r="J65" t="n">
+        <v>192</v>
+      </c>
+      <c r="K65" t="n">
+        <v>126.0077509320542</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2765,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4603536410.205793</v>
+        <v>4348714287.936626</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1393370265315531</v>
+        <v>0.1397367520026329</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03926173305075269</v>
+        <v>0.04585794123001297</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>94</v>
+      </c>
+      <c r="J66" t="n">
+        <v>192</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2679074091.753788</v>
+        <v>2372063981.676629</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08319932229825781</v>
+        <v>0.0714822049661165</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03491787462656145</v>
+        <v>0.05021474824206108</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2835,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5241480058.094295</v>
+        <v>4875878598.050653</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1114310429959704</v>
+        <v>0.1245471208832189</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04914387563237915</v>
+        <v>0.0514555141921386</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>97</v>
+      </c>
+      <c r="J68" t="n">
+        <v>191</v>
+      </c>
+      <c r="K68" t="n">
+        <v>119.14350660295</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1804556049.449455</v>
+        <v>1754324701.351218</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1507663084766613</v>
+        <v>0.1502116607602172</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0538488008831098</v>
+        <v>0.05183758967419436</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2842607298.915016</v>
+        <v>2410198614.627288</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09921406092593192</v>
+        <v>0.09949504221250077</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03645325603356286</v>
+        <v>0.04185905774918209</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="n">
+        <v>190</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4900624955.867495</v>
+        <v>5522972467.938066</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1321938441960786</v>
+        <v>0.1291626791171879</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02901173796911238</v>
+        <v>0.03180527611113613</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>148</v>
+      </c>
+      <c r="J71" t="n">
+        <v>192</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1716955882.488923</v>
+        <v>2180322536.285993</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08136540943428655</v>
+        <v>0.06936602341976894</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03275396396348967</v>
+        <v>0.05128041039769311</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3161776295.025025</v>
+        <v>2862572412.406043</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07880714882914105</v>
+        <v>0.07472128470223513</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03963447949321885</v>
+        <v>0.04318198383593261</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3947341083.323284</v>
+        <v>3160331315.929354</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1705119395127455</v>
+        <v>0.1772260331045743</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02570341790805547</v>
+        <v>0.03082719350499848</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>55</v>
+      </c>
+      <c r="J74" t="n">
+        <v>189</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1801067497.094351</v>
+        <v>1985830545.845155</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1319240960312061</v>
+        <v>0.1467847179755619</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03501827717540541</v>
+        <v>0.03060314483689629</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4915322576.817841</v>
+        <v>3469669738.232059</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1251184946064786</v>
+        <v>0.1113126482667365</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03157854998365896</v>
+        <v>0.02482390788761654</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>87</v>
+      </c>
+      <c r="J76" t="n">
+        <v>192</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2177625161.674792</v>
+        <v>1498440156.876687</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1583698330088515</v>
+        <v>0.1491778511493532</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02389937560856623</v>
+        <v>0.02057727701088147</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3294549396.756557</v>
+        <v>3460215587.597269</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1074217372399084</v>
+        <v>0.110600578345428</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04236766756429187</v>
+        <v>0.04107430435280465</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>98</v>
+      </c>
+      <c r="J78" t="n">
+        <v>191</v>
+      </c>
+      <c r="K78" t="n">
+        <v>104.9875653483521</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3224,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1771760937.178004</v>
+        <v>1496858003.061072</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1592379829915845</v>
+        <v>0.167571620955603</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03410907416931739</v>
+        <v>0.03577379926892951</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5453612404.482591</v>
+        <v>4025967047.031717</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0769834724635951</v>
+        <v>0.08520377402605489</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03330713999987615</v>
+        <v>0.02805152491340927</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>94</v>
+      </c>
+      <c r="J80" t="n">
+        <v>191</v>
+      </c>
+      <c r="K80" t="n">
+        <v>89.59694566626456</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4255723365.830412</v>
+        <v>3419448047.182366</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1062176593634954</v>
+        <v>0.1212822936792532</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02339745312481123</v>
+        <v>0.02905466930934737</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>88</v>
+      </c>
+      <c r="J81" t="n">
+        <v>191</v>
+      </c>
+      <c r="K81" t="n">
+        <v>87.36678681237038</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5578557390.945283</v>
+        <v>3519408738.166872</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1708975034750347</v>
+        <v>0.1755340444590012</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02324635202441014</v>
+        <v>0.02903764565458439</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>142</v>
+      </c>
+      <c r="J82" t="n">
+        <v>191</v>
+      </c>
+      <c r="K82" t="n">
+        <v>113.8531694566275</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1689943674.109633</v>
+        <v>1867243335.150436</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1207022427234801</v>
+        <v>0.1202538123886204</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03008829467081266</v>
+        <v>0.02970349794170912</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1915673296.075424</v>
+        <v>1980575170.958479</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0953799637431262</v>
+        <v>0.08476099184599155</v>
       </c>
       <c r="G84" t="n">
-        <v>0.032353778222759</v>
+        <v>0.04691329901957442</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2330800549.218402</v>
+        <v>3017687513.348666</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1761604403655392</v>
+        <v>0.1499772436602403</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04395657686263862</v>
+        <v>0.05310162618047025</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2186467765.418429</v>
+        <v>2647039974.191494</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1693633494469196</v>
+        <v>0.1664782487263955</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02200996999672445</v>
+        <v>0.02321142648230237</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1262585154.980079</v>
+        <v>1051592311.146936</v>
       </c>
       <c r="F87" t="n">
-        <v>0.130644842260265</v>
+        <v>0.1442389544182029</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04056605239203356</v>
+        <v>0.04413493854752294</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2471377692.360111</v>
+        <v>3565585364.179066</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1294937714909174</v>
+        <v>0.1710865826313752</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03548944238526853</v>
+        <v>0.02430361208986941</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2890623551.893881</v>
+        <v>2823076796.6521</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1477527409664134</v>
+        <v>0.1103443357479086</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03464017388964465</v>
+        <v>0.02810936775478177</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2049883601.535465</v>
+        <v>1389284213.310405</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1335240536108407</v>
+        <v>0.1037695807989306</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03437783980043737</v>
+        <v>0.04881792079663609</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1948982106.488557</v>
+        <v>1647519738.003592</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1186413207091871</v>
+        <v>0.1769275160873023</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05071900580377469</v>
+        <v>0.03755169114943952</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2870682316.657794</v>
+        <v>2292860224.051201</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06992600427193581</v>
+        <v>0.07646249992673899</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03995133973890298</v>
+        <v>0.03892942110931704</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4087562146.810382</v>
+        <v>4704465133.832837</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09066388225286784</v>
+        <v>0.1270714369519453</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04086579338767668</v>
+        <v>0.04627958540210338</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>86</v>
+      </c>
+      <c r="J93" t="n">
+        <v>192</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3755,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1904763955.331939</v>
+        <v>1723486852.697167</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1533596114446927</v>
+        <v>0.132989550415039</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03451930369646471</v>
+        <v>0.02684481106897174</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3790,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2123357396.484034</v>
+        <v>3274312617.521263</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1095582741071986</v>
+        <v>0.1370590950409991</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04591954609677535</v>
+        <v>0.03409844451756066</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2244707110.168608</v>
+        <v>1777754613.604942</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1000867225960515</v>
+        <v>0.1214829581942691</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03938240341622161</v>
+        <v>0.04494450721605385</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3408947659.748106</v>
+        <v>3468841554.99056</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1767979501530104</v>
+        <v>0.1572503430618779</v>
       </c>
       <c r="G97" t="n">
-        <v>0.021768993995329</v>
+        <v>0.01782793606443346</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>93</v>
+      </c>
+      <c r="J97" t="n">
+        <v>191</v>
+      </c>
+      <c r="K97" t="n">
+        <v>101.7551000920683</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2433643028.947921</v>
+        <v>3578217943.044341</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1225630383166538</v>
+        <v>0.1263471425319855</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03091815081204761</v>
+        <v>0.02889823135459939</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>47</v>
+      </c>
+      <c r="J98" t="n">
+        <v>191</v>
+      </c>
+      <c r="K98" t="n">
+        <v>97.9700882343201</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2789444863.388471</v>
+        <v>2337701353.398448</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1270462871908039</v>
+        <v>0.1128936694338345</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02935614807334659</v>
+        <v>0.0292145645601699</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3209366807.870574</v>
+        <v>3775154639.100228</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1523911804717492</v>
+        <v>0.1664550395623016</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02620307418022553</v>
+        <v>0.02796727714764553</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>80</v>
+      </c>
+      <c r="J100" t="n">
+        <v>191</v>
+      </c>
+      <c r="K100" t="n">
+        <v>117.2755627429322</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3526987330.073307</v>
+        <v>2995060486.544601</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1718922417255982</v>
+        <v>0.1724333254377128</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04191450590181185</v>
+        <v>0.04564466475077658</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
